--- a/Data/Banjir_2020.xlsx
+++ b/Data/Banjir_2020.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\tugas_koko\Mencari_Kerja\Kerjaan\Paw_Patrol\Development\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{051E20FB-93CC-4BC0-9FE1-405C63FB2581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="laporan1" sheetId="1" r:id="rId4"/>
+    <sheet name="laporan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Statistik Bencana Menurut Wilayah</t>
   </si>
@@ -234,67 +239,58 @@
   </si>
   <si>
     <t>Badan Nasional Penanggulangan Bencana (BNPB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="26"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -302,10 +298,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -315,11 +308,21 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -334,6 +337,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -348,83 +352,77 @@
       <bottom style="double">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="00000000"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="3" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="3" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="3" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="3" fillId="0" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="3" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="3" fillId="2" borderId="2" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" quotePrefix="1" numFmtId="3" fillId="2" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="5" numFmtId="3" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="3" fillId="0" borderId="4" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="3" fillId="2" borderId="4" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -440,7 +438,13 @@
     <xdr:ext cx="704850" cy="838200"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 6" descr=""/>
+        <xdr:cNvPr id="2" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -452,7 +456,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="0"/>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -749,86 +756,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="false" showRowColHeaders="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.54296875" customWidth="true" style="0"/>
-    <col min="3" max="3" width="13" customWidth="true" style="3"/>
-    <col min="4" max="4" width="13" customWidth="true" style="3"/>
-    <col min="5" max="5" width="13" customWidth="true" style="3"/>
-    <col min="6" max="6" width="13" customWidth="true" style="3"/>
-    <col min="7" max="7" width="13" customWidth="true" style="3"/>
-    <col min="8" max="8" width="13" customWidth="true" style="3"/>
-    <col min="9" max="9" width="13" customWidth="true" style="3"/>
-    <col min="10" max="10" width="13" customWidth="true" style="3"/>
-    <col min="11" max="11" width="13" customWidth="true" style="3"/>
-    <col min="12" max="12" width="13" customWidth="true" style="3"/>
-    <col min="13" max="13" width="13" customWidth="true" style="3"/>
-    <col min="14" max="14" width="13" customWidth="true" style="3"/>
-    <col min="15" max="15" width="13" customWidth="true" style="3"/>
-    <col min="16" max="16" width="13" customWidth="true" style="3"/>
-    <col min="17" max="17" width="13" customWidth="true" style="3"/>
-    <col min="2" max="2" width="30" customWidth="true" style="0"/>
+    <col min="1" max="1" width="2.5546875" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="17" width="13" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1"/>
-    </row>
-    <row r="2" spans="1:17" customHeight="1" ht="32.5">
-      <c r="B2" s="6" t="s">
+    </row>
+    <row r="2" spans="1:17" ht="32.549999999999997" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-    </row>
-    <row r="3" spans="1:17" customHeight="1" ht="15.5">
-      <c r="B3" s="2"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-    </row>
-    <row r="4" spans="1:17" customHeight="1" ht="18.5">
-      <c r="B4" s="8" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" spans="1:17" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M3" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+    </row>
+    <row r="4" spans="1:17" ht="18.45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="11" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="12" t="s">
@@ -850,1420 +828,1420 @@
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
     </row>
-    <row r="5" spans="1:17">
-      <c r="B5" s="8"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="10" t="s">
+      <c r="J5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="10" t="s">
+      <c r="P5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:17" customHeight="1" ht="15">
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="11" t="s">
+      <c r="N6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="11" t="s">
+      <c r="O6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="P6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q6" s="11" t="s">
+      <c r="Q6" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:17" customHeight="1" ht="15">
-      <c r="B7" s="15" t="s">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="13">
-        <v>81.0</v>
-      </c>
-      <c r="D7" s="13">
+      <c r="C7" s="6">
+        <v>81</v>
+      </c>
+      <c r="D7" s="6">
         <v>3</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6">
         <v>133668</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="6">
         <v>12279</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="6">
         <v>189</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="6">
         <v>6</v>
       </c>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13">
+      <c r="K7" s="6"/>
+      <c r="L7" s="6">
         <v>7</v>
       </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13">
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6">
         <v>9</v>
       </c>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13">
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
-      <c r="B8" s="15" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="13">
-        <v>76.0</v>
-      </c>
-      <c r="D8" s="13">
+      <c r="C8" s="6">
+        <v>76</v>
+      </c>
+      <c r="D8" s="6">
         <v>13</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="6">
         <v>4</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="6">
         <v>9</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="6">
         <v>341450</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="6">
         <v>22692</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="6">
         <v>380</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="6">
         <v>18</v>
       </c>
-      <c r="K8" s="13">
-        <v>1</v>
-      </c>
-      <c r="L8" s="13">
+      <c r="K8" s="6">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6">
         <v>11</v>
       </c>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13">
-        <v>1</v>
-      </c>
-      <c r="O8" s="13">
+      <c r="M8" s="6"/>
+      <c r="N8" s="6">
+        <v>1</v>
+      </c>
+      <c r="O8" s="6">
         <v>13</v>
       </c>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13">
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
-      <c r="B9" s="15" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="13">
-        <v>75.0</v>
-      </c>
-      <c r="D9" s="13">
+      <c r="C9" s="6">
+        <v>75</v>
+      </c>
+      <c r="D9" s="6">
         <v>3</v>
       </c>
-      <c r="E9" s="13">
-        <v>1</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
         <v>3</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="6">
         <v>22382</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="6">
         <v>5121</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="6">
         <v>125</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="6">
         <v>14</v>
       </c>
-      <c r="K9" s="13">
-        <v>1</v>
-      </c>
-      <c r="L9" s="13">
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6">
         <v>11</v>
       </c>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13">
+      <c r="M9" s="6"/>
+      <c r="N9" s="6">
         <v>4</v>
       </c>
-      <c r="O9" s="13">
+      <c r="O9" s="6">
         <v>32</v>
       </c>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13">
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
-      <c r="B10" s="15" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="13">
-        <v>19.0</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13">
+      <c r="C10" s="6">
+        <v>19</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6">
         <v>14972</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="6">
         <v>140</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="6">
         <v>13</v>
       </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="B11" s="15" t="s">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="13">
-        <v>36.0</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13">
+      <c r="C11" s="6">
+        <v>36</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6">
         <v>62882</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="6">
         <v>250</v>
       </c>
-      <c r="I11" s="13">
+      <c r="I11" s="6">
         <v>2703</v>
       </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13">
-        <v>1</v>
-      </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13">
-        <v>1</v>
-      </c>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="B12" s="15" t="s">
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6">
+        <v>1</v>
+      </c>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6">
+        <v>1</v>
+      </c>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="13">
-        <v>60.0</v>
-      </c>
-      <c r="D12" s="13">
-        <v>1</v>
-      </c>
-      <c r="E12" s="13">
+      <c r="C12" s="6">
+        <v>60</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
         <v>0</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F12" s="6">
         <v>0</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="6">
         <v>36463</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="6">
         <v>411</v>
       </c>
-      <c r="I12" s="13">
+      <c r="I12" s="6">
         <v>982</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="6">
         <v>10</v>
       </c>
-      <c r="K12" s="13">
+      <c r="K12" s="6">
         <v>2</v>
       </c>
-      <c r="L12" s="13">
+      <c r="L12" s="6">
         <v>3</v>
       </c>
-      <c r="M12" s="13">
+      <c r="M12" s="6">
         <v>0</v>
       </c>
-      <c r="N12" s="13">
+      <c r="N12" s="6">
         <v>0</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="6">
         <v>29</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="6">
         <v>0</v>
       </c>
-      <c r="Q12" s="13">
+      <c r="Q12" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
-      <c r="B13" s="15" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="13">
-        <v>20.0</v>
-      </c>
-      <c r="D13" s="13">
+      <c r="C13" s="6">
+        <v>20</v>
+      </c>
+      <c r="D13" s="6">
         <v>10</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6">
         <v>20527</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13">
+      <c r="H13" s="6"/>
+      <c r="I13" s="6">
         <v>422</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="6">
         <v>11</v>
       </c>
-      <c r="K13" s="13">
-        <v>1</v>
-      </c>
-      <c r="L13" s="13">
+      <c r="K13" s="6">
+        <v>1</v>
+      </c>
+      <c r="L13" s="6">
         <v>4</v>
       </c>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13">
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6">
         <v>14</v>
       </c>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="B14" s="15" t="s">
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B14" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="13">
-        <v>25.0</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13">
+      <c r="C14" s="6">
+        <v>25</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6">
         <v>13599</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="6">
         <v>947</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="6">
         <v>3948</v>
       </c>
-      <c r="J14" s="13">
-        <v>1</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13">
+      <c r="J14" s="6">
+        <v>1</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6">
         <v>3</v>
       </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13">
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6">
         <v>2</v>
       </c>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="B15" s="15" t="s">
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B15" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13">
+      <c r="C15" s="6">
+        <v>3</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6">
         <v>425</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="6">
         <v>20</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="B16" s="15" t="s">
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="13">
-        <v>2.0</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13">
+      <c r="C16" s="6">
+        <v>2</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6">
         <v>555</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="B17" s="15" t="s">
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="13">
-        <v>58.0</v>
-      </c>
-      <c r="D17" s="13">
+      <c r="C17" s="6">
+        <v>58</v>
+      </c>
+      <c r="D17" s="6">
         <v>20</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6">
         <v>67951</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="6">
         <v>54535</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="13"/>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="B18" s="15" t="s">
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="13">
-        <v>217.0</v>
-      </c>
-      <c r="D18" s="13">
+      <c r="C18" s="6">
+        <v>217</v>
+      </c>
+      <c r="D18" s="6">
         <v>30</v>
       </c>
-      <c r="E18" s="13">
-        <v>1</v>
-      </c>
-      <c r="F18" s="13">
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
         <v>24</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="6">
         <v>1213626</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="6">
         <v>408030</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="6">
         <v>1846</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="6">
         <v>169</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="6">
         <v>10</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="6">
         <v>300</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="6">
         <v>0</v>
       </c>
-      <c r="N18" s="13">
+      <c r="N18" s="6">
         <v>0</v>
       </c>
-      <c r="O18" s="13">
+      <c r="O18" s="6">
         <v>44</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="6">
         <v>0</v>
       </c>
-      <c r="Q18" s="13">
+      <c r="Q18" s="6">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
-      <c r="B19" s="15" t="s">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="13">
-        <v>254.0</v>
-      </c>
-      <c r="D19" s="13">
+      <c r="C19" s="6">
+        <v>254</v>
+      </c>
+      <c r="D19" s="6">
         <v>11</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="6">
         <v>2</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="6">
         <v>4</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="6">
         <v>264905</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="6">
         <v>21490</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="6">
         <v>526</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="6">
         <v>7</v>
       </c>
-      <c r="K19" s="13">
-        <v>1</v>
-      </c>
-      <c r="L19" s="13">
+      <c r="K19" s="6">
+        <v>1</v>
+      </c>
+      <c r="L19" s="6">
         <v>4</v>
       </c>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13">
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6">
         <v>19</v>
       </c>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13">
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
-      <c r="B20" s="15" t="s">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="13">
-        <v>6.0</v>
-      </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13">
-        <v>1</v>
-      </c>
-      <c r="G20" s="13">
+      <c r="C20" s="6">
+        <v>6</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
         <v>720</v>
       </c>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13">
-        <v>1</v>
-      </c>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13">
+      <c r="H20" s="6"/>
+      <c r="I20" s="6">
+        <v>1</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6">
         <v>2</v>
       </c>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13">
-        <v>1</v>
-      </c>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="B21" s="15" t="s">
+      <c r="M20" s="6"/>
+      <c r="N20" s="6">
+        <v>1</v>
+      </c>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="13">
-        <v>136.0</v>
-      </c>
-      <c r="D21" s="13">
+      <c r="C21" s="6">
+        <v>136</v>
+      </c>
+      <c r="D21" s="6">
         <v>6</v>
       </c>
-      <c r="E21" s="13">
-        <v>1</v>
-      </c>
-      <c r="F21" s="13">
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
         <v>14</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="6">
         <v>296553</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="6">
         <v>1338</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="6">
         <v>381</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="6">
         <v>11</v>
       </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13">
+      <c r="K21" s="6"/>
+      <c r="L21" s="6">
         <v>37</v>
       </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13">
+      <c r="M21" s="6"/>
+      <c r="N21" s="6">
         <v>2</v>
       </c>
-      <c r="O21" s="13">
+      <c r="O21" s="6">
         <v>22</v>
       </c>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13">
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6">
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
-      <c r="B22" s="15" t="s">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="13">
-        <v>47.0</v>
-      </c>
-      <c r="D22" s="13">
+      <c r="C22" s="6">
+        <v>47</v>
+      </c>
+      <c r="D22" s="6">
         <v>12</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13">
-        <v>1</v>
-      </c>
-      <c r="G22" s="13">
+      <c r="E22" s="6"/>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6">
         <v>250738</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="6">
         <v>24643</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="6">
         <v>5065</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="6">
         <v>4</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="6">
         <v>2</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="6">
         <v>2</v>
       </c>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13">
+      <c r="M22" s="6"/>
+      <c r="N22" s="6">
         <v>2</v>
       </c>
-      <c r="O22" s="13">
+      <c r="O22" s="6">
         <v>2</v>
       </c>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="B23" s="15" t="s">
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B23" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="13">
-        <v>4.0</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13">
+      <c r="C23" s="6">
+        <v>4</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6">
         <v>20</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="6">
         <v>3</v>
       </c>
-      <c r="J23" s="13">
-        <v>1</v>
-      </c>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="B24" s="15" t="s">
+      <c r="J23" s="6">
+        <v>1</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B24" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="13">
-        <v>40.0</v>
-      </c>
-      <c r="D24" s="13">
+      <c r="C24" s="6">
+        <v>40</v>
+      </c>
+      <c r="D24" s="6">
         <v>3</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13">
+      <c r="E24" s="6"/>
+      <c r="F24" s="6">
         <v>4</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="6">
         <v>25940</v>
       </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13">
+      <c r="H24" s="6"/>
+      <c r="I24" s="6">
         <v>27</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="6">
         <v>8</v>
       </c>
-      <c r="K24" s="13">
-        <v>1</v>
-      </c>
-      <c r="L24" s="13">
-        <v>1</v>
-      </c>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13">
+      <c r="K24" s="6">
+        <v>1</v>
+      </c>
+      <c r="L24" s="6">
+        <v>1</v>
+      </c>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6">
         <v>2</v>
       </c>
-      <c r="O24" s="13">
+      <c r="O24" s="6">
         <v>7</v>
       </c>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="B25" s="15" t="s">
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13">
+      <c r="C25" s="6">
+        <v>3</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6">
         <v>2410</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="6">
         <v>280</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="6">
         <v>2</v>
       </c>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="B26" s="15" t="s">
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="13">
-        <v>50.0</v>
-      </c>
-      <c r="D26" s="13">
+      <c r="C26" s="6">
+        <v>50</v>
+      </c>
+      <c r="D26" s="6">
         <v>3</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13">
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6">
         <v>173228</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="6">
         <v>109634</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="6">
         <v>107</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="6">
         <v>18</v>
       </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13">
+      <c r="K26" s="6"/>
+      <c r="L26" s="6">
         <v>13</v>
       </c>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13">
-        <v>1</v>
-      </c>
-      <c r="O26" s="13">
+      <c r="M26" s="6"/>
+      <c r="N26" s="6">
+        <v>1</v>
+      </c>
+      <c r="O26" s="6">
         <v>18</v>
       </c>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="B27" s="15" t="s">
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B27" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="13">
-        <v>64.0</v>
-      </c>
-      <c r="D27" s="13">
+      <c r="C27" s="6">
+        <v>64</v>
+      </c>
+      <c r="D27" s="6">
         <v>6</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E27" s="6">
         <v>3</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13">
+      <c r="F27" s="6"/>
+      <c r="G27" s="6">
         <v>287876</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="6">
         <v>6230</v>
       </c>
-      <c r="I27" s="13">
-        <v>1</v>
-      </c>
-      <c r="J27" s="13">
+      <c r="I27" s="6">
+        <v>1</v>
+      </c>
+      <c r="J27" s="6">
         <v>16</v>
       </c>
-      <c r="K27" s="13">
+      <c r="K27" s="6">
         <v>15</v>
       </c>
-      <c r="L27" s="13">
+      <c r="L27" s="6">
         <v>7</v>
       </c>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13">
-        <v>1</v>
-      </c>
-      <c r="O27" s="13">
+      <c r="M27" s="6"/>
+      <c r="N27" s="6">
+        <v>1</v>
+      </c>
+      <c r="O27" s="6">
         <v>13</v>
       </c>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="B28" s="15" t="s">
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B28" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="13">
-        <v>64.0</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13">
+      <c r="C28" s="6">
+        <v>64</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6">
         <v>148096</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="6">
         <v>289</v>
       </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13">
-        <v>1</v>
-      </c>
-      <c r="K28" s="13">
-        <v>1</v>
-      </c>
-      <c r="L28" s="13">
+      <c r="I28" s="6"/>
+      <c r="J28" s="6">
+        <v>1</v>
+      </c>
+      <c r="K28" s="6">
+        <v>1</v>
+      </c>
+      <c r="L28" s="6">
         <v>2</v>
       </c>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13">
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6">
         <v>5</v>
       </c>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="B29" s="15" t="s">
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B29" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="13">
-        <v>22.0</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13">
+      <c r="C29" s="6">
+        <v>22</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6">
         <v>71048</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="6">
         <v>46420</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29" s="6">
         <v>6</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="6">
         <v>10</v>
       </c>
-      <c r="K29" s="13">
+      <c r="K29" s="6">
         <v>5</v>
       </c>
-      <c r="L29" s="13">
+      <c r="L29" s="6">
         <v>21</v>
       </c>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="B30" s="15" t="s">
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B30" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="13">
-        <v>6.0</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13">
+      <c r="C30" s="6">
+        <v>6</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6">
         <v>100</v>
       </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13">
-        <v>1</v>
-      </c>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="B31" s="15" t="s">
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6">
+        <v>1</v>
+      </c>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B31" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="13">
-        <v>6.0</v>
-      </c>
-      <c r="D31" s="13">
+      <c r="C31" s="6">
+        <v>6</v>
+      </c>
+      <c r="D31" s="6">
         <v>2</v>
       </c>
-      <c r="E31" s="13">
-        <v>1</v>
-      </c>
-      <c r="F31" s="13">
+      <c r="E31" s="6">
+        <v>1</v>
+      </c>
+      <c r="F31" s="6">
         <v>0</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="6">
         <v>29070</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="6">
         <v>0</v>
       </c>
-      <c r="I31" s="13">
+      <c r="I31" s="6">
         <v>7169</v>
       </c>
-      <c r="J31" s="13">
-        <v>1</v>
-      </c>
-      <c r="K31" s="13">
+      <c r="J31" s="6">
+        <v>1</v>
+      </c>
+      <c r="K31" s="6">
         <v>0</v>
       </c>
-      <c r="L31" s="13">
-        <v>1</v>
-      </c>
-      <c r="M31" s="13">
+      <c r="L31" s="6">
+        <v>1</v>
+      </c>
+      <c r="M31" s="6">
         <v>0</v>
       </c>
-      <c r="N31" s="13">
+      <c r="N31" s="6">
         <v>0</v>
       </c>
-      <c r="O31" s="13">
-        <v>1</v>
-      </c>
-      <c r="P31" s="13">
+      <c r="O31" s="6">
+        <v>1</v>
+      </c>
+      <c r="P31" s="6">
         <v>0</v>
       </c>
-      <c r="Q31" s="13">
+      <c r="Q31" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="32" spans="1:17">
-      <c r="B32" s="15" t="s">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="13">
-        <v>43.0</v>
-      </c>
-      <c r="D32" s="13">
+      <c r="C32" s="6">
+        <v>43</v>
+      </c>
+      <c r="D32" s="6">
         <v>0</v>
       </c>
-      <c r="E32" s="13">
-        <v>1</v>
-      </c>
-      <c r="F32" s="13">
-        <v>1</v>
-      </c>
-      <c r="G32" s="13">
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1</v>
+      </c>
+      <c r="G32" s="6">
         <v>45629</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="6">
         <v>6416</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I32" s="6">
         <v>471</v>
       </c>
-      <c r="J32" s="13">
-        <v>1</v>
-      </c>
-      <c r="K32" s="13">
-        <v>1</v>
-      </c>
-      <c r="L32" s="13">
+      <c r="J32" s="6">
+        <v>1</v>
+      </c>
+      <c r="K32" s="6">
+        <v>1</v>
+      </c>
+      <c r="L32" s="6">
         <v>3</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M32" s="6">
         <v>0</v>
       </c>
-      <c r="N32" s="13">
+      <c r="N32" s="6">
         <v>2</v>
       </c>
-      <c r="O32" s="13">
+      <c r="O32" s="6">
         <v>13</v>
       </c>
-      <c r="P32" s="13">
+      <c r="P32" s="6">
         <v>0</v>
       </c>
-      <c r="Q32" s="13">
+      <c r="Q32" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
-      <c r="B33" s="15" t="s">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B33" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="13">
-        <v>49.0</v>
-      </c>
-      <c r="D33" s="13">
+      <c r="C33" s="6">
+        <v>49</v>
+      </c>
+      <c r="D33" s="6">
         <v>3</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13">
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6">
         <v>189872</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="6">
         <v>4771</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I33" s="6">
         <v>2322</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="6">
         <v>173</v>
       </c>
-      <c r="K33" s="13">
+      <c r="K33" s="6">
         <v>73</v>
       </c>
-      <c r="L33" s="13">
+      <c r="L33" s="6">
         <v>121</v>
       </c>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13">
+      <c r="M33" s="6"/>
+      <c r="N33" s="6">
         <v>51</v>
       </c>
-      <c r="O33" s="13">
+      <c r="O33" s="6">
         <v>60</v>
       </c>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" spans="1:17">
-      <c r="B34" s="15" t="s">
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B34" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="13">
-        <v>6.0</v>
-      </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13">
+      <c r="C34" s="6">
+        <v>6</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6">
         <v>20728</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="6">
         <v>14140</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I34" s="6">
         <v>50</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="6">
         <v>11</v>
       </c>
-      <c r="K34" s="13">
+      <c r="K34" s="6">
         <v>4</v>
       </c>
-      <c r="L34" s="13">
+      <c r="L34" s="6">
         <v>62</v>
       </c>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13">
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6">
         <v>3</v>
       </c>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" spans="1:17">
-      <c r="B35" s="15" t="s">
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B35" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="13">
-        <v>23.0</v>
-      </c>
-      <c r="D35" s="13">
+      <c r="C35" s="6">
+        <v>23</v>
+      </c>
+      <c r="D35" s="6">
         <v>4</v>
       </c>
-      <c r="E35" s="13">
-        <v>1</v>
-      </c>
-      <c r="F35" s="13">
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
         <v>3</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="6">
         <v>96919</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="6">
         <v>25632</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I35" s="6">
         <v>1865</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="6">
         <v>18</v>
       </c>
-      <c r="K35" s="13">
+      <c r="K35" s="6">
         <v>4</v>
       </c>
-      <c r="L35" s="13">
+      <c r="L35" s="6">
         <v>2</v>
       </c>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13">
-        <v>1</v>
-      </c>
-      <c r="O35" s="13">
+      <c r="M35" s="6"/>
+      <c r="N35" s="6">
+        <v>1</v>
+      </c>
+      <c r="O35" s="6">
         <v>13</v>
       </c>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" spans="1:17">
-      <c r="B36" s="15" t="s">
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+    </row>
+    <row r="36" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B36" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13">
+      <c r="C36" s="6">
+        <v>3</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6">
         <v>5268</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="6">
         <v>2293</v>
       </c>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13">
-        <v>1</v>
-      </c>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13">
-        <v>1</v>
-      </c>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="B37" s="15" t="s">
+      <c r="I36" s="6"/>
+      <c r="J36" s="6">
+        <v>1</v>
+      </c>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6">
+        <v>1</v>
+      </c>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B37" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="13">
-        <v>8.0</v>
-      </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13">
+      <c r="C37" s="6">
+        <v>8</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6">
         <v>3549</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="6">
         <v>55</v>
       </c>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13">
-        <v>1</v>
-      </c>
-      <c r="K37" s="13">
-        <v>1</v>
-      </c>
-      <c r="L37" s="13">
+      <c r="I37" s="6"/>
+      <c r="J37" s="6">
+        <v>1</v>
+      </c>
+      <c r="K37" s="6">
+        <v>1</v>
+      </c>
+      <c r="L37" s="6">
         <v>4</v>
       </c>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13">
+      <c r="M37" s="6"/>
+      <c r="N37" s="6">
         <v>2</v>
       </c>
-      <c r="O37" s="13">
-        <v>1</v>
-      </c>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13">
+      <c r="O37" s="6">
+        <v>1</v>
+      </c>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:17">
-      <c r="B38" s="15" t="s">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B38" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="13">
-        <v>16.0</v>
-      </c>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="13">
+      <c r="C38" s="6">
+        <v>16</v>
+      </c>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6">
         <v>425</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="6">
         <v>12438</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I38" s="6">
         <v>173</v>
       </c>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="13">
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6">
         <v>10</v>
       </c>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="B39" s="15" t="s">
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B39" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13">
+      <c r="C39" s="6">
+        <v>3</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6">
         <v>1650</v>
       </c>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="B40" s="15" t="s">
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B40" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="C40" s="13">
-        <v>6.0</v>
-      </c>
-      <c r="D40" s="13">
+      <c r="C40" s="6">
+        <v>6</v>
+      </c>
+      <c r="D40" s="6">
         <v>2</v>
       </c>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13">
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6">
         <v>490</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="6">
         <v>540</v>
       </c>
-      <c r="I40" s="13">
+      <c r="I40" s="6">
         <v>47</v>
       </c>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13">
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6">
         <v>2</v>
       </c>
-      <c r="M40" s="13"/>
-      <c r="N40" s="13">
-        <v>1</v>
-      </c>
-      <c r="O40" s="13">
-        <v>1</v>
-      </c>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13">
+      <c r="M40" s="6"/>
+      <c r="N40" s="6">
+        <v>1</v>
+      </c>
+      <c r="O40" s="6">
+        <v>1</v>
+      </c>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:17">
-      <c r="B41" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="14">
-        <v>1531.0</v>
-      </c>
-      <c r="D41" s="14">
+    <row r="41" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B41" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="7">
+        <v>1531</v>
+      </c>
+      <c r="D41" s="7">
         <v>132</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="7">
         <v>15</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F41" s="7">
         <v>64</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G41" s="7">
         <v>3843714</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="7">
         <v>781054</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I41" s="7">
         <v>28824</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="7">
         <v>511</v>
       </c>
-      <c r="K41" s="14">
+      <c r="K41" s="7">
         <v>123</v>
       </c>
-      <c r="L41" s="14">
+      <c r="L41" s="7">
         <v>625</v>
       </c>
-      <c r="M41" s="14">
+      <c r="M41" s="7">
         <v>0</v>
       </c>
-      <c r="N41" s="14">
+      <c r="N41" s="7">
         <v>71</v>
       </c>
-      <c r="O41" s="14">
+      <c r="O41" s="7">
         <v>333</v>
       </c>
-      <c r="P41" s="14">
+      <c r="P41" s="7">
         <v>0</v>
       </c>
-      <c r="Q41" s="14">
+      <c r="Q41" s="7">
         <v>162</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="6">
     <mergeCell ref="B2:Q2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
@@ -2271,17 +2249,8 @@
     <mergeCell ref="I4:Q4"/>
     <mergeCell ref="M3:Q3"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" r:id="rId1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-  <drawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>